--- a/Test Data/FC_Gallery_Printers_FIM_Series_Panels.xlsx
+++ b/Test Data/FC_Gallery_Printers_FIM_Series_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB38C7BE-86B8-44C7-B2F1-3CF1FE2AD6E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78EDF74-A869-4EC2-A8B7-C04ECB1DEF4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="21" r:id="rId1"/>
@@ -95,10 +95,10 @@
     <t>Italy Market</t>
   </si>
   <si>
-    <t>NGC-4308/T3628/T3634/T3646/T3627/T3635/T3645</t>
-  </si>
-  <si>
     <t>NGC-3443/T1917/T1942/T1957/T1925/T1943/T1956/T1926/T1944/T1958</t>
+  </si>
+  <si>
+    <t>NGC-4308/T3628/T3634/T3646/T3627/T3635/T3645/T3629/T3637/T3648</t>
   </si>
 </sst>
 </file>
@@ -731,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07FE658F-51AF-4116-AC62-B9F124E3AC8B}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -778,7 +778,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -833,7 +833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B47CB4F-276F-4A56-94D8-85A1C8557A01}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -880,7 +880,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/FC_Gallery_Printers_FIM_Series_Panels.xlsx
+++ b/Test Data/FC_Gallery_Printers_FIM_Series_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78EDF74-A869-4EC2-A8B7-C04ECB1DEF4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD38DD13-63A0-4619-8BBB-6D0D55020FE3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="21" r:id="rId1"/>
@@ -80,9 +80,6 @@
     <t>UK Market</t>
   </si>
   <si>
-    <t>NGC-/T1235/T1239/T1245/T1237</t>
-  </si>
-  <si>
     <t>Spain Market</t>
   </si>
   <si>
@@ -99,6 +96,9 @@
   </si>
   <si>
     <t>NGC-4308/T3628/T3634/T3646/T3627/T3635/T3645/T3629/T3637/T3648</t>
+  </si>
+  <si>
+    <t>NGC-3003/T1235/T1239/T1245/T1237/T1238/T1247/T1253</t>
   </si>
 </sst>
 </file>
@@ -522,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74ACA134-0DC9-4886-A3B4-427550CF960B}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -569,7 +569,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -654,7 +654,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -676,7 +676,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -731,7 +731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07FE658F-51AF-4116-AC62-B9F124E3AC8B}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -756,7 +756,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -778,7 +778,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -858,7 +858,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -880,7 +880,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
